--- a/results/vice_garantu.xlsx
+++ b/results/vice_garantu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>garantiUcitIdno</t>
   </si>
@@ -26,12 +26,195 @@
   </si>
   <si>
     <t>pocet garantu</t>
+  </si>
+  <si>
+    <t>[315, 3164]</t>
+  </si>
+  <si>
+    <t>[1803, 305]</t>
+  </si>
+  <si>
+    <t>[3452, 3528]</t>
+  </si>
+  <si>
+    <t>[8441, 283]</t>
+  </si>
+  <si>
+    <t>[1999, 8280]</t>
+  </si>
+  <si>
+    <t>[4380, 5754]</t>
+  </si>
+  <si>
+    <t>[304, 612]</t>
+  </si>
+  <si>
+    <t>[3661, 283]</t>
+  </si>
+  <si>
+    <t>[263, 1537]</t>
+  </si>
+  <si>
+    <t>[2227, 4117]</t>
+  </si>
+  <si>
+    <t>[425, 267]</t>
+  </si>
+  <si>
+    <t>[301, 425]</t>
+  </si>
+  <si>
+    <t>[264, 615]</t>
+  </si>
+  <si>
+    <t>[2227, 550]</t>
+  </si>
+  <si>
+    <t>[1434, 4747]</t>
+  </si>
+  <si>
+    <t>[1644, 1434]</t>
+  </si>
+  <si>
+    <t>[3452, 1434]</t>
+  </si>
+  <si>
+    <t>[69, 3222]</t>
+  </si>
+  <si>
+    <t>[425, 3528]</t>
+  </si>
+  <si>
+    <t>'RNDr. Ivan Farský, CSc.', 'Mgr. Jiří Riezner, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Jaromír Havlica, Ph.D.', 'prof. RNDr. Ivo Nezbeda, DrSc.'</t>
+  </si>
+  <si>
+    <t>'doc. PhDr. RNDr. Jan Daniel Bláha, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. PhDr. Kateřina Jančaříková, Ph.D.', 'RNDr. Lenka Němcová, CSc.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Blanka Desortová, CSc.', 'Mgr. Pavla Urbánková, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Jaroslava Jelínková, Ph.D.', 'Mgr. Vladimír Lorenc'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Marek Malý, Ph.D.', 'Mgr. Dalibor Sedlák'</t>
+  </si>
+  <si>
+    <t>'prof. doc. RNDr. Milan Gryndler, CSc.', 'RNDr. Lenka Němcová, CSc.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Pavla Hofmanová', 'prof. RNDr. Jan Malý, DrSc.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Vlastimil Dohnal, Ph.D.', 'RNDr. Ľuboš Vrtoch, PhD., Ph.D.'</t>
+  </si>
+  <si>
+    <t>'PhDr. Magdalena Krátká, Ph.D.', 'PhDr. Jiří Přibyl, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Eva Hejnová, Ph.D.', 'PhDr. Magdalena Krátká, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Martin Kuřil, Ph.D.', 'doc. RNDr. Michal Varady, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Vlastimil Dohnal, Ph.D.', 'prof. Ing. Pavel Janoš, CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. Mgr. Pavel Raška, Ph.D.', 'doc. Ing. Lenka Slavíková, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.', 'doc. Mgr. Pavel Raška, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. PhDr. RNDr. Jan Daniel Bláha, Ph.D.', 'doc. Mgr. Pavel Raška, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'prof. RNDr. Rudolf Hrach, DrSc.', 'doc. RNDr. Filip Moučka, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'PhDr. Magdalena Krátká, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B600</t>
+  </si>
+  <si>
+    <t>BK107</t>
+  </si>
+  <si>
+    <t>BK108</t>
+  </si>
+  <si>
+    <t>K100</t>
+  </si>
+  <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>K301</t>
+  </si>
+  <si>
+    <t>K304</t>
+  </si>
+  <si>
+    <t>K501</t>
+  </si>
+  <si>
+    <t>KA00</t>
+  </si>
+  <si>
+    <t>KPSPP</t>
+  </si>
+  <si>
+    <t>KSBP</t>
+  </si>
+  <si>
+    <t>N300</t>
+  </si>
+  <si>
+    <t>P301</t>
+  </si>
+  <si>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>PD104</t>
+  </si>
+  <si>
+    <t>PD105</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>PSPP</t>
+  </si>
+  <si>
+    <t>RSPP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -61,8 +244,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -78,8 +267,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D23" totalsRowShown="0">
+  <autoFilter ref="A1:D23"/>
   <tableColumns count="4">
     <tableColumn id="1" name="garantiUcitIdno" dataDxfId="0"/>
     <tableColumn id="2" name="garanti" dataDxfId="0"/>
@@ -375,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,6 +584,314 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/results/vice_garantu.xlsx
+++ b/results/vice_garantu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>garantiUcitIdno</t>
   </si>
@@ -22,6 +22,9 @@
     <t>garanti</t>
   </si>
   <si>
+    <t>katedra</t>
+  </si>
+  <si>
     <t>zkratka</t>
   </si>
   <si>
@@ -140,6 +143,24 @@
   </si>
   <si>
     <t>'PhDr. Magdalena Krátká, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
+  </si>
+  <si>
+    <t>KGEO</t>
+  </si>
+  <si>
+    <t>KCH</t>
+  </si>
+  <si>
+    <t>KBI</t>
+  </si>
+  <si>
+    <t>KPRF</t>
+  </si>
+  <si>
+    <t>KFY</t>
+  </si>
+  <si>
+    <t>KMA</t>
   </si>
   <si>
     <t>0023</t>
@@ -267,13 +288,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D23" totalsRowShown="0">
-  <autoFilter ref="A1:D23"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:E23" totalsRowShown="0">
+  <autoFilter ref="A1:E23"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="garantiUcitIdno" dataDxfId="0"/>
     <tableColumn id="2" name="garanti" dataDxfId="0"/>
-    <tableColumn id="3" name="zkratka" dataDxfId="0"/>
-    <tableColumn id="4" name="pocet garantu" dataDxfId="1"/>
+    <tableColumn id="3" name="katedra" dataDxfId="0"/>
+    <tableColumn id="4" name="zkratka" dataDxfId="0"/>
+    <tableColumn id="5" name="pocet garantu" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,312 +605,381 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="2">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2">
         <v>2</v>
       </c>
     </row>
